--- a/result/WHO_result_7030.xlsx
+++ b/result/WHO_result_7030.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>acc_train</t>
   </si>
@@ -32,94 +32,70 @@
     <t>f_score</t>
   </si>
   <si>
-    <t>0.9525</t>
-  </si>
-  <si>
-    <t>0.9488</t>
-  </si>
-  <si>
-    <t>0.6667</t>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>0.9466</t>
+  </si>
+  <si>
+    <t>0.6111</t>
+  </si>
+  <si>
+    <t>0.3548</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>0.9267</t>
+  </si>
+  <si>
+    <t>0.3333</t>
+  </si>
+  <si>
+    <t>0.2333</t>
+  </si>
+  <si>
+    <t>0.2745</t>
+  </si>
+  <si>
+    <t>0.9565</t>
+  </si>
+  <si>
+    <t>0.9327</t>
   </si>
   <si>
     <t>0.375</t>
   </si>
   <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.9542</t>
-  </si>
-  <si>
-    <t>0.9447</t>
-  </si>
-  <si>
-    <t>0.5556</t>
-  </si>
-  <si>
-    <t>0.3333</t>
-  </si>
-  <si>
-    <t>0.4167</t>
-  </si>
-  <si>
-    <t>0.9249</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.2609</t>
+  </si>
+  <si>
+    <t>0.9535</t>
+  </si>
+  <si>
+    <t>0.9406</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.9538</t>
-  </si>
-  <si>
-    <t>0.9407</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.2667</t>
-  </si>
-  <si>
-    <t>0.3478</t>
-  </si>
-  <si>
-    <t>0.9551</t>
-  </si>
-  <si>
-    <t>0.9368</t>
-  </si>
-  <si>
-    <t>0.4286</t>
-  </si>
-  <si>
-    <t>0.2727</t>
-  </si>
-  <si>
-    <t>0.9543</t>
-  </si>
-  <si>
-    <t>0.9365</t>
-  </si>
-  <si>
-    <t>0.9534</t>
-  </si>
-  <si>
-    <t>0.9405</t>
-  </si>
-  <si>
-    <t>0.9521</t>
-  </si>
-  <si>
-    <t>0.9529</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>0.9366</t>
+  </si>
+  <si>
+    <t>0.4545</t>
+  </si>
+  <si>
+    <t>0.3846</t>
   </si>
 </sst>
 </file>
@@ -468,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,138 +505,53 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/result/WHO_result_7030.xlsx
+++ b/result/WHO_result_7030.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>acc_train</t>
   </si>
@@ -32,70 +32,76 @@
     <t>f_score</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>0.9466</t>
-  </si>
-  <si>
-    <t>0.6111</t>
-  </si>
-  <si>
-    <t>0.3548</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.956</t>
-  </si>
-  <si>
-    <t>0.9267</t>
-  </si>
-  <si>
-    <t>0.3333</t>
-  </si>
-  <si>
-    <t>0.2333</t>
-  </si>
-  <si>
-    <t>0.2745</t>
-  </si>
-  <si>
-    <t>0.9565</t>
-  </si>
-  <si>
-    <t>0.9327</t>
-  </si>
-  <si>
-    <t>0.375</t>
+    <t>0.9744</t>
+  </si>
+  <si>
+    <t>0.9414</t>
+  </si>
+  <si>
+    <t>0.5556</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.3448</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>0.3636</t>
   </si>
   <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>0.2609</t>
-  </si>
-  <si>
-    <t>0.9535</t>
-  </si>
-  <si>
-    <t>0.9406</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.9366</t>
-  </si>
-  <si>
-    <t>0.4545</t>
-  </si>
-  <si>
-    <t>0.3846</t>
+    <t>0.2581</t>
+  </si>
+  <si>
+    <t>0.9683</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>0.4167</t>
+  </si>
+  <si>
+    <t>0.2632</t>
+  </si>
+  <si>
+    <t>0.3226</t>
+  </si>
+  <si>
+    <t>0.9799</t>
+  </si>
+  <si>
+    <t>0.9161</t>
+  </si>
+  <si>
+    <t>0.3182</t>
+  </si>
+  <si>
+    <t>0.3684</t>
+  </si>
+  <si>
+    <t>0.3415</t>
+  </si>
+  <si>
+    <t>0.9729</t>
+  </si>
+  <si>
+    <t>0.9534</t>
+  </si>
+  <si>
+    <t>0.6667</t>
+  </si>
+  <si>
+    <t>0.4211</t>
+  </si>
+  <si>
+    <t>0.5161</t>
   </si>
 </sst>
 </file>
@@ -488,70 +494,70 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
